--- a/GeoTollExcelMRO.xlsx
+++ b/GeoTollExcelMRO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\eclipse-workspace\GeoToll\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\eclipse-workspace\GeoTollUAT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,10 +32,10 @@
     <t xml:space="preserve"> Password</t>
   </si>
   <si>
-    <t>udupaakshaya+QATest@gmail.com</t>
+    <t>mayankkgarg0+stage.pilot@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve"> New@1234</t>
+    <t xml:space="preserve"> New@12345</t>
   </si>
 </sst>
 </file>
@@ -367,7 +367,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
